--- a/CumulativeTestsByTypeByCounty/2021-08-19.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-08-19.xlsx
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>63200</v>
+        <v>63349</v>
       </c>
       <c r="C2" s="4">
         <v>1645</v>
@@ -1080,7 +1080,7 @@
         <v>14626</v>
       </c>
       <c r="E2" s="4">
-        <v>79471</v>
+        <v>79620</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4815</v>
+        <v>4834</v>
       </c>
       <c r="C3" s="4">
         <v>264</v>
@@ -1097,7 +1097,7 @@
         <v>3841</v>
       </c>
       <c r="E3" s="4">
-        <v>8920</v>
+        <v>8939</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>66684</v>
+        <v>66837</v>
       </c>
       <c r="C4" s="4">
-        <v>3525</v>
+        <v>3530</v>
       </c>
       <c r="D4" s="4">
-        <v>42231</v>
+        <v>42233</v>
       </c>
       <c r="E4" s="4">
-        <v>112440</v>
+        <v>112600</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>11563</v>
+        <v>11597</v>
       </c>
       <c r="C5" s="4">
-        <v>2487</v>
+        <v>2494</v>
       </c>
       <c r="D5" s="4">
-        <v>8815</v>
+        <v>8834</v>
       </c>
       <c r="E5" s="4">
-        <v>22865</v>
+        <v>22925</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="C6" s="4">
         <v>583</v>
@@ -1148,7 +1148,7 @@
         <v>745</v>
       </c>
       <c r="E6" s="4">
-        <v>4595</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>74502</v>
+        <v>74593</v>
       </c>
       <c r="C8" s="4">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D8" s="4">
-        <v>8312</v>
+        <v>8317</v>
       </c>
       <c r="E8" s="4">
-        <v>84098</v>
+        <v>84195</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>21970</v>
+        <v>22014</v>
       </c>
       <c r="C9" s="4">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D9" s="4">
         <v>2861</v>
       </c>
       <c r="E9" s="4">
-        <v>26538</v>
+        <v>26583</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2114</v>
+        <v>2120</v>
       </c>
       <c r="C10" s="4">
         <v>75</v>
       </c>
       <c r="D10" s="4">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E10" s="4">
-        <v>2995</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>10539</v>
+        <v>10556</v>
       </c>
       <c r="C11" s="4">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D11" s="4">
-        <v>5416</v>
+        <v>5417</v>
       </c>
       <c r="E11" s="4">
-        <v>16540</v>
+        <v>16559</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>69468</v>
+        <v>69718</v>
       </c>
       <c r="C12" s="4">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="D12" s="4">
-        <v>25459</v>
+        <v>25467</v>
       </c>
       <c r="E12" s="4">
-        <v>96387</v>
+        <v>96648</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>41337</v>
+        <v>41731</v>
       </c>
       <c r="C14" s="4">
-        <v>6580</v>
+        <v>6603</v>
       </c>
       <c r="D14" s="4">
-        <v>13357</v>
+        <v>13391</v>
       </c>
       <c r="E14" s="4">
-        <v>61274</v>
+        <v>61725</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>311839</v>
+        <v>312324</v>
       </c>
       <c r="C15" s="4">
-        <v>14019</v>
+        <v>14025</v>
       </c>
       <c r="D15" s="4">
-        <v>37562</v>
+        <v>37595</v>
       </c>
       <c r="E15" s="4">
-        <v>363420</v>
+        <v>363944</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>2820972</v>
+        <v>2827954</v>
       </c>
       <c r="C16" s="4">
-        <v>60382</v>
+        <v>60446</v>
       </c>
       <c r="D16" s="4">
-        <v>358650</v>
+        <v>359031</v>
       </c>
       <c r="E16" s="4">
-        <v>3240004</v>
+        <v>3247431</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>7141</v>
+        <v>7165</v>
       </c>
       <c r="C17" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D17" s="4">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="4">
-        <v>8756</v>
+        <v>8782</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>10171</v>
+        <v>10184</v>
       </c>
       <c r="C19" s="4">
         <v>492</v>
@@ -1369,7 +1369,7 @@
         <v>5845</v>
       </c>
       <c r="E19" s="4">
-        <v>16508</v>
+        <v>16521</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>70262</v>
+        <v>70539</v>
       </c>
       <c r="C20" s="4">
-        <v>10138</v>
+        <v>10142</v>
       </c>
       <c r="D20" s="4">
-        <v>20382</v>
+        <v>20441</v>
       </c>
       <c r="E20" s="4">
-        <v>100782</v>
+        <v>101122</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>416601</v>
+        <v>417830</v>
       </c>
       <c r="C21" s="4">
-        <v>22251</v>
+        <v>22283</v>
       </c>
       <c r="D21" s="4">
-        <v>66137</v>
+        <v>66181</v>
       </c>
       <c r="E21" s="4">
-        <v>504989</v>
+        <v>506294</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>299390</v>
+        <v>300295</v>
       </c>
       <c r="C22" s="4">
-        <v>9880</v>
+        <v>9887</v>
       </c>
       <c r="D22" s="4">
-        <v>30348</v>
+        <v>30384</v>
       </c>
       <c r="E22" s="4">
-        <v>339618</v>
+        <v>340566</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8865</v>
+        <v>8868</v>
       </c>
       <c r="C23" s="4">
         <v>138</v>
@@ -1437,7 +1437,7 @@
         <v>1739</v>
       </c>
       <c r="E23" s="4">
-        <v>10742</v>
+        <v>10745</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C24" s="4">
         <v>130</v>
@@ -1454,7 +1454,7 @@
         <v>127</v>
       </c>
       <c r="E24" s="4">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>21280</v>
+        <v>21292</v>
       </c>
       <c r="C25" s="4">
         <v>1649</v>
       </c>
       <c r="D25" s="4">
-        <v>4270</v>
+        <v>4274</v>
       </c>
       <c r="E25" s="4">
-        <v>27199</v>
+        <v>27215</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>19790</v>
+        <v>19826</v>
       </c>
       <c r="C26" s="4">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="D26" s="4">
-        <v>27312</v>
+        <v>27367</v>
       </c>
       <c r="E26" s="4">
-        <v>48049</v>
+        <v>48150</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,7 +1496,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>18399</v>
+        <v>18424</v>
       </c>
       <c r="C27" s="4">
         <v>659</v>
@@ -1505,7 +1505,7 @@
         <v>3949</v>
       </c>
       <c r="E27" s="4">
-        <v>23007</v>
+        <v>23032</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>44385</v>
+        <v>44524</v>
       </c>
       <c r="C28" s="4">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="D28" s="4">
-        <v>6454</v>
+        <v>6456</v>
       </c>
       <c r="E28" s="4">
-        <v>52189</v>
+        <v>52333</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>43840</v>
+        <v>43973</v>
       </c>
       <c r="C29" s="4">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="D29" s="4">
-        <v>8313</v>
+        <v>8317</v>
       </c>
       <c r="E29" s="4">
-        <v>53928</v>
+        <v>54067</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>16357</v>
+        <v>16370</v>
       </c>
       <c r="C30" s="4">
-        <v>1466</v>
+        <v>1475</v>
       </c>
       <c r="D30" s="4">
-        <v>8243</v>
+        <v>8280</v>
       </c>
       <c r="E30" s="4">
-        <v>26066</v>
+        <v>26125</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>5776</v>
+        <v>5792</v>
       </c>
       <c r="C31" s="4">
         <v>264</v>
       </c>
       <c r="D31" s="4">
-        <v>6726</v>
+        <v>6728</v>
       </c>
       <c r="E31" s="4">
-        <v>12766</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>333810</v>
+        <v>334800</v>
       </c>
       <c r="C32" s="4">
-        <v>9156</v>
+        <v>9162</v>
       </c>
       <c r="D32" s="4">
-        <v>97774</v>
+        <v>97976</v>
       </c>
       <c r="E32" s="4">
-        <v>440740</v>
+        <v>441938</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>6977</v>
+        <v>6990</v>
       </c>
       <c r="C33" s="4">
         <v>424</v>
@@ -1607,7 +1607,7 @@
         <v>2661</v>
       </c>
       <c r="E33" s="4">
-        <v>10062</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="C34" s="4">
         <v>971</v>
       </c>
       <c r="D34" s="4">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E34" s="4">
-        <v>3874</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>14563</v>
+        <v>14590</v>
       </c>
       <c r="C35" s="4">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="D35" s="4">
-        <v>6360</v>
+        <v>6372</v>
       </c>
       <c r="E35" s="4">
-        <v>24158</v>
+        <v>24199</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>4952</v>
+        <v>4959</v>
       </c>
       <c r="C36" s="4">
         <v>324</v>
       </c>
       <c r="D36" s="4">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="E36" s="4">
-        <v>7593</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>10561</v>
+        <v>10637</v>
       </c>
       <c r="C37" s="4">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D37" s="4">
         <v>2158</v>
       </c>
       <c r="E37" s="4">
-        <v>13545</v>
+        <v>13622</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>29462</v>
+        <v>29522</v>
       </c>
       <c r="C38" s="4">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="D38" s="4">
         <v>15208</v>
       </c>
       <c r="E38" s="4">
-        <v>45657</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>3981</v>
+        <v>3984</v>
       </c>
       <c r="C39" s="4">
         <v>401</v>
@@ -1709,7 +1709,7 @@
         <v>5279</v>
       </c>
       <c r="E39" s="4">
-        <v>9661</v>
+        <v>9664</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>4828</v>
+        <v>4842</v>
       </c>
       <c r="C40" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D40" s="4">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="E40" s="4">
-        <v>7964</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="C41" s="4">
         <v>23</v>
@@ -1743,7 +1743,7 @@
         <v>329</v>
       </c>
       <c r="E41" s="4">
-        <v>1357</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2293</v>
+        <v>2298</v>
       </c>
       <c r="C42" s="4">
         <v>36</v>
       </c>
       <c r="D42" s="4">
-        <v>2084</v>
+        <v>2105</v>
       </c>
       <c r="E42" s="4">
-        <v>4413</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>3559</v>
+        <v>3579</v>
       </c>
       <c r="C43" s="4">
         <v>116</v>
       </c>
       <c r="D43" s="4">
-        <v>3404</v>
+        <v>3408</v>
       </c>
       <c r="E43" s="4">
-        <v>7079</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1141004</v>
+        <v>1143530</v>
       </c>
       <c r="C44" s="4">
-        <v>91773</v>
+        <v>91856</v>
       </c>
       <c r="D44" s="4">
-        <v>171867</v>
+        <v>171942</v>
       </c>
       <c r="E44" s="4">
-        <v>1404644</v>
+        <v>1407328</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C45" s="4">
         <v>109</v>
@@ -1811,7 +1811,7 @@
         <v>1859</v>
       </c>
       <c r="E45" s="4">
-        <v>3306</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>14194</v>
+        <v>14233</v>
       </c>
       <c r="C46" s="4">
         <v>1107</v>
       </c>
       <c r="D46" s="4">
-        <v>5925</v>
+        <v>5926</v>
       </c>
       <c r="E46" s="4">
-        <v>21226</v>
+        <v>21266</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>133792</v>
+        <v>134105</v>
       </c>
       <c r="C47" s="4">
-        <v>8979</v>
+        <v>8987</v>
       </c>
       <c r="D47" s="4">
-        <v>31931</v>
+        <v>31980</v>
       </c>
       <c r="E47" s="4">
-        <v>174702</v>
+        <v>175072</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>7577</v>
+        <v>7582</v>
       </c>
       <c r="C48" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D48" s="4">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="E48" s="4">
-        <v>11397</v>
+        <v>11404</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,7 +1870,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="C49" s="4">
         <v>25</v>
@@ -1879,7 +1879,7 @@
         <v>2236</v>
       </c>
       <c r="E49" s="4">
-        <v>3982</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>26470</v>
+        <v>26509</v>
       </c>
       <c r="C50" s="4">
-        <v>1600</v>
+        <v>1608</v>
       </c>
       <c r="D50" s="4">
-        <v>7401</v>
+        <v>7403</v>
       </c>
       <c r="E50" s="4">
-        <v>35471</v>
+        <v>35520</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>106036</v>
+        <v>106275</v>
       </c>
       <c r="C51" s="4">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="D51" s="4">
-        <v>10783</v>
+        <v>10797</v>
       </c>
       <c r="E51" s="4">
-        <v>119102</v>
+        <v>119356</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C52" s="4">
         <v>46</v>
@@ -1930,7 +1930,7 @@
         <v>876</v>
       </c>
       <c r="E52" s="4">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,7 +1938,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
       <c r="C53" s="4">
         <v>73</v>
@@ -1947,7 +1947,7 @@
         <v>2189</v>
       </c>
       <c r="E53" s="4">
-        <v>6867</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>21</v>
       </c>
       <c r="D54" s="4">
-        <v>3062</v>
+        <v>3070</v>
       </c>
       <c r="E54" s="4">
-        <v>4147</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2878</v>
+        <v>2883</v>
       </c>
       <c r="C55" s="4">
         <v>41</v>
       </c>
       <c r="D55" s="4">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="E55" s="4">
-        <v>5072</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1995,10 +1995,10 @@
         <v>33</v>
       </c>
       <c r="D56" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E56" s="4">
-        <v>2540</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,7 +2006,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="C57" s="4">
         <v>434</v>
@@ -2015,7 +2015,7 @@
         <v>2243</v>
       </c>
       <c r="E57" s="4">
-        <v>4843</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2845956</v>
+        <v>2852586</v>
       </c>
       <c r="C58" s="4">
-        <v>144571</v>
+        <v>144664</v>
       </c>
       <c r="D58" s="4">
-        <v>349183</v>
+        <v>349362</v>
       </c>
       <c r="E58" s="4">
-        <v>3339710</v>
+        <v>3346612</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>9394</v>
+        <v>9403</v>
       </c>
       <c r="C59" s="4">
         <v>528</v>
       </c>
       <c r="D59" s="4">
-        <v>3549</v>
+        <v>3551</v>
       </c>
       <c r="E59" s="4">
-        <v>13471</v>
+        <v>13482</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>11437</v>
+        <v>11456</v>
       </c>
       <c r="C60" s="4">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D60" s="4">
-        <v>4197</v>
+        <v>4201</v>
       </c>
       <c r="E60" s="4">
-        <v>15999</v>
+        <v>16024</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,7 +2074,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>5738</v>
+        <v>5741</v>
       </c>
       <c r="C61" s="4">
         <v>1072</v>
@@ -2083,7 +2083,7 @@
         <v>3497</v>
       </c>
       <c r="E61" s="4">
-        <v>10307</v>
+        <v>10310</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="C62" s="4">
         <v>245</v>
       </c>
       <c r="D62" s="4">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="E62" s="4">
-        <v>4009</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>702026</v>
+        <v>703495</v>
       </c>
       <c r="C63" s="4">
-        <v>68416</v>
+        <v>68460</v>
       </c>
       <c r="D63" s="4">
-        <v>142105</v>
+        <v>142151</v>
       </c>
       <c r="E63" s="4">
-        <v>912547</v>
+        <v>914106</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C64" s="4">
         <v>14</v>
@@ -2134,7 +2134,7 @@
         <v>466</v>
       </c>
       <c r="E64" s="4">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>23047</v>
+        <v>23151</v>
       </c>
       <c r="C65" s="4">
         <v>118</v>
@@ -2151,7 +2151,7 @@
         <v>35894</v>
       </c>
       <c r="E65" s="4">
-        <v>59059</v>
+        <v>59163</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C66" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D66" s="4">
         <v>1077</v>
       </c>
       <c r="E66" s="4">
-        <v>2934</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>20018</v>
+        <v>20251</v>
       </c>
       <c r="C67" s="4">
-        <v>2999</v>
+        <v>3007</v>
       </c>
       <c r="D67" s="4">
-        <v>6242</v>
+        <v>6245</v>
       </c>
       <c r="E67" s="4">
-        <v>29259</v>
+        <v>29503</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>5589</v>
+        <v>5606</v>
       </c>
       <c r="C68" s="4">
         <v>431</v>
       </c>
       <c r="D68" s="4">
-        <v>5123</v>
+        <v>5124</v>
       </c>
       <c r="E68" s="4">
-        <v>11143</v>
+        <v>11161</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>67485</v>
+        <v>67614</v>
       </c>
       <c r="C69" s="4">
-        <v>5193</v>
+        <v>5198</v>
       </c>
       <c r="D69" s="4">
-        <v>32077</v>
+        <v>32080</v>
       </c>
       <c r="E69" s="4">
-        <v>104755</v>
+        <v>104892</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C70" s="4">
         <v>36</v>
@@ -2236,7 +2236,7 @@
         <v>636</v>
       </c>
       <c r="E70" s="4">
-        <v>1926</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1027687</v>
+        <v>1028818</v>
       </c>
       <c r="C71" s="4">
-        <v>19813</v>
+        <v>19820</v>
       </c>
       <c r="D71" s="4">
-        <v>452215</v>
+        <v>452329</v>
       </c>
       <c r="E71" s="4">
-        <v>1499715</v>
+        <v>1500967</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>195884</v>
+        <v>196219</v>
       </c>
       <c r="C72" s="4">
-        <v>7823</v>
+        <v>7829</v>
       </c>
       <c r="D72" s="4">
-        <v>28267</v>
+        <v>28290</v>
       </c>
       <c r="E72" s="4">
-        <v>231974</v>
+        <v>232338</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>23142</v>
+        <v>23255</v>
       </c>
       <c r="C73" s="4">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D73" s="4">
-        <v>10288</v>
+        <v>10293</v>
       </c>
       <c r="E73" s="4">
-        <v>34686</v>
+        <v>34805</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>14630</v>
+        <v>14645</v>
       </c>
       <c r="C74" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D74" s="4">
-        <v>4736</v>
+        <v>4740</v>
       </c>
       <c r="E74" s="4">
-        <v>19806</v>
+        <v>19826</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>33638</v>
+        <v>33658</v>
       </c>
       <c r="C75" s="4">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D75" s="4">
-        <v>6893</v>
+        <v>6894</v>
       </c>
       <c r="E75" s="4">
-        <v>41456</v>
+        <v>41478</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>18183</v>
+        <v>18233</v>
       </c>
       <c r="C76" s="4">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D76" s="4">
-        <v>4152</v>
+        <v>4154</v>
       </c>
       <c r="E76" s="4">
-        <v>23101</v>
+        <v>23155</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,7 +2346,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="C77" s="4">
         <v>35</v>
@@ -2355,7 +2355,7 @@
         <v>389</v>
       </c>
       <c r="E77" s="4">
-        <v>1953</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>3115</v>
+        <v>3123</v>
       </c>
       <c r="C78" s="4">
         <v>131</v>
@@ -2372,7 +2372,7 @@
         <v>530</v>
       </c>
       <c r="E78" s="4">
-        <v>3776</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C79" s="4">
         <v>120</v>
@@ -2389,7 +2389,7 @@
         <v>814</v>
       </c>
       <c r="E79" s="4">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>834583</v>
+        <v>836670</v>
       </c>
       <c r="C80" s="4">
-        <v>43880</v>
+        <v>43903</v>
       </c>
       <c r="D80" s="4">
-        <v>90275</v>
+        <v>90295</v>
       </c>
       <c r="E80" s="4">
-        <v>968738</v>
+        <v>970868</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>5241</v>
+        <v>5253</v>
       </c>
       <c r="C81" s="4">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D81" s="4">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E81" s="4">
-        <v>6888</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,7 +2431,7 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>17753</v>
+        <v>17805</v>
       </c>
       <c r="C82" s="4">
         <v>724</v>
@@ -2440,7 +2440,7 @@
         <v>10043</v>
       </c>
       <c r="E82" s="4">
-        <v>28520</v>
+        <v>28572</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>23360</v>
+        <v>23409</v>
       </c>
       <c r="C83" s="4">
         <v>538</v>
       </c>
       <c r="D83" s="4">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E83" s="4">
-        <v>28275</v>
+        <v>28325</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3992</v>
+        <v>4000</v>
       </c>
       <c r="C84" s="4">
         <v>247</v>
       </c>
       <c r="D84" s="4">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E84" s="4">
-        <v>5748</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>455470</v>
+        <v>456954</v>
       </c>
       <c r="C85" s="4">
-        <v>22412</v>
+        <v>22431</v>
       </c>
       <c r="D85" s="4">
-        <v>52512</v>
+        <v>52577</v>
       </c>
       <c r="E85" s="4">
-        <v>530394</v>
+        <v>531962</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>2899</v>
+        <v>2908</v>
       </c>
       <c r="C86" s="4">
         <v>56</v>
       </c>
       <c r="D86" s="4">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="E86" s="4">
-        <v>4532</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>17710</v>
+        <v>17734</v>
       </c>
       <c r="C87" s="4">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D87" s="4">
-        <v>6147</v>
+        <v>6154</v>
       </c>
       <c r="E87" s="4">
-        <v>24456</v>
+        <v>24491</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>37</v>
       </c>
       <c r="D88" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E88" s="4">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>3478</v>
+        <v>3486</v>
       </c>
       <c r="C89" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D89" s="4">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="E89" s="4">
-        <v>6259</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>14368</v>
+        <v>14390</v>
       </c>
       <c r="C90" s="4">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D90" s="4">
         <v>7406</v>
       </c>
       <c r="E90" s="4">
-        <v>22187</v>
+        <v>22210</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>9209</v>
+        <v>9227</v>
       </c>
       <c r="C91" s="4">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D91" s="4">
-        <v>4188</v>
+        <v>4205</v>
       </c>
       <c r="E91" s="4">
-        <v>14477</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>123830</v>
+        <v>123947</v>
       </c>
       <c r="C92" s="4">
-        <v>4604</v>
+        <v>4615</v>
       </c>
       <c r="D92" s="4">
-        <v>23386</v>
+        <v>23392</v>
       </c>
       <c r="E92" s="4">
-        <v>151820</v>
+        <v>151954</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>59006</v>
+        <v>59182</v>
       </c>
       <c r="C93" s="4">
-        <v>11033</v>
+        <v>11035</v>
       </c>
       <c r="D93" s="4">
-        <v>24916</v>
+        <v>24936</v>
       </c>
       <c r="E93" s="4">
-        <v>94955</v>
+        <v>95153</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>43490</v>
+        <v>43554</v>
       </c>
       <c r="C94" s="4">
         <v>1240</v>
       </c>
       <c r="D94" s="4">
-        <v>4939</v>
+        <v>4941</v>
       </c>
       <c r="E94" s="4">
-        <v>49669</v>
+        <v>49735</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>109317</v>
+        <v>109558</v>
       </c>
       <c r="C95" s="4">
-        <v>4559</v>
+        <v>4568</v>
       </c>
       <c r="D95" s="4">
-        <v>26739</v>
+        <v>26770</v>
       </c>
       <c r="E95" s="4">
-        <v>140615</v>
+        <v>140896</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>20201</v>
+        <v>20285</v>
       </c>
       <c r="C96" s="4">
         <v>380</v>
       </c>
       <c r="D96" s="4">
-        <v>4295</v>
+        <v>4304</v>
       </c>
       <c r="E96" s="4">
-        <v>24876</v>
+        <v>24969</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>7091</v>
+        <v>7122</v>
       </c>
       <c r="C98" s="4">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D98" s="4">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="E98" s="4">
-        <v>9516</v>
+        <v>9549</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2737,7 +2737,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="C100" s="4">
         <v>273</v>
@@ -2746,7 +2746,7 @@
         <v>1241</v>
       </c>
       <c r="E100" s="4">
-        <v>3308</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>29769</v>
+        <v>29858</v>
       </c>
       <c r="C101" s="4">
         <v>3619</v>
       </c>
       <c r="D101" s="4">
-        <v>14646</v>
+        <v>14652</v>
       </c>
       <c r="E101" s="4">
-        <v>48034</v>
+        <v>48129</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>5117949</v>
+        <v>5128265</v>
       </c>
       <c r="C102" s="4">
-        <v>244126</v>
+        <v>244270</v>
       </c>
       <c r="D102" s="4">
-        <v>667872</v>
+        <v>668464</v>
       </c>
       <c r="E102" s="4">
-        <v>6029947</v>
+        <v>6040999</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>70232</v>
+        <v>70349</v>
       </c>
       <c r="C103" s="4">
-        <v>8232</v>
+        <v>8233</v>
       </c>
       <c r="D103" s="4">
-        <v>15647</v>
+        <v>15657</v>
       </c>
       <c r="E103" s="4">
-        <v>94111</v>
+        <v>94239</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,7 +2822,7 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="C105" s="4">
         <v>36</v>
@@ -2831,7 +2831,7 @@
         <v>1793</v>
       </c>
       <c r="E105" s="4">
-        <v>3343</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>310255</v>
+        <v>311487</v>
       </c>
       <c r="C106" s="4">
-        <v>12077</v>
+        <v>12096</v>
       </c>
       <c r="D106" s="4">
-        <v>32381</v>
+        <v>32396</v>
       </c>
       <c r="E106" s="4">
-        <v>354713</v>
+        <v>355979</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>33774</v>
+        <v>33870</v>
       </c>
       <c r="C108" s="4">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="D108" s="4">
-        <v>15119</v>
+        <v>15123</v>
       </c>
       <c r="E108" s="4">
-        <v>51401</v>
+        <v>51504</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>590848</v>
+        <v>592577</v>
       </c>
       <c r="C109" s="4">
-        <v>17668</v>
+        <v>17697</v>
       </c>
       <c r="D109" s="4">
-        <v>271722</v>
+        <v>271836</v>
       </c>
       <c r="E109" s="4">
-        <v>880238</v>
+        <v>882110</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>35412</v>
+        <v>35450</v>
       </c>
       <c r="C110" s="4">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D110" s="4">
-        <v>9892</v>
+        <v>9895</v>
       </c>
       <c r="E110" s="4">
-        <v>46361</v>
+        <v>46403</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>10236</v>
+        <v>10283</v>
       </c>
       <c r="C111" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D111" s="4">
-        <v>4004</v>
+        <v>4009</v>
       </c>
       <c r="E111" s="4">
-        <v>14383</v>
+        <v>14436</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>41708</v>
+        <v>41757</v>
       </c>
       <c r="C112" s="4">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="D112" s="4">
-        <v>29591</v>
+        <v>29631</v>
       </c>
       <c r="E112" s="4">
-        <v>73960</v>
+        <v>74051</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>20235</v>
+        <v>20275</v>
       </c>
       <c r="C113" s="4">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D113" s="4">
-        <v>7331</v>
+        <v>7334</v>
       </c>
       <c r="E113" s="4">
-        <v>29526</v>
+        <v>29570</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>17564</v>
+        <v>17646</v>
       </c>
       <c r="C114" s="4">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D114" s="4">
         <v>5703</v>
       </c>
       <c r="E114" s="4">
-        <v>23839</v>
+        <v>23923</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>18948</v>
+        <v>18975</v>
       </c>
       <c r="C115" s="4">
         <v>643</v>
       </c>
       <c r="D115" s="4">
-        <v>7116</v>
+        <v>7120</v>
       </c>
       <c r="E115" s="4">
-        <v>26707</v>
+        <v>26738</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="C116" s="4">
         <v>42</v>
       </c>
       <c r="D116" s="4">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E116" s="4">
-        <v>4165</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>93801</v>
+        <v>94004</v>
       </c>
       <c r="C117" s="4">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="D117" s="4">
-        <v>21952</v>
+        <v>22045</v>
       </c>
       <c r="E117" s="4">
-        <v>119971</v>
+        <v>120268</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>9561</v>
+        <v>9575</v>
       </c>
       <c r="C118" s="4">
         <v>1541</v>
       </c>
       <c r="D118" s="4">
-        <v>6026</v>
+        <v>6030</v>
       </c>
       <c r="E118" s="4">
-        <v>17128</v>
+        <v>17146</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C119" s="4">
         <v>17</v>
       </c>
       <c r="D119" s="4">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E119" s="4">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,7 +3077,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="C120" s="4">
         <v>227</v>
@@ -3086,7 +3086,7 @@
         <v>966</v>
       </c>
       <c r="E120" s="4">
-        <v>4081</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>8489</v>
+        <v>8522</v>
       </c>
       <c r="C121" s="4">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D121" s="4">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="E121" s="4">
-        <v>11873</v>
+        <v>11910</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>19172</v>
+        <v>19352</v>
       </c>
       <c r="C122" s="4">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="D122" s="4">
-        <v>7340</v>
+        <v>7345</v>
       </c>
       <c r="E122" s="4">
-        <v>29234</v>
+        <v>29422</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>190912</v>
+        <v>191240</v>
       </c>
       <c r="C124" s="4">
-        <v>13763</v>
+        <v>13780</v>
       </c>
       <c r="D124" s="4">
-        <v>60871</v>
+        <v>60893</v>
       </c>
       <c r="E124" s="4">
-        <v>265546</v>
+        <v>265913</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>14550</v>
+        <v>14557</v>
       </c>
       <c r="C125" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D125" s="4">
-        <v>5025</v>
+        <v>5027</v>
       </c>
       <c r="E125" s="4">
-        <v>20234</v>
+        <v>20245</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>56420</v>
+        <v>56575</v>
       </c>
       <c r="C126" s="4">
-        <v>9559</v>
+        <v>9579</v>
       </c>
       <c r="D126" s="4">
-        <v>22677</v>
+        <v>22698</v>
       </c>
       <c r="E126" s="4">
-        <v>88656</v>
+        <v>88852</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>141624</v>
+        <v>142040</v>
       </c>
       <c r="C127" s="4">
-        <v>7516</v>
+        <v>7527</v>
       </c>
       <c r="D127" s="4">
-        <v>26495</v>
+        <v>26496</v>
       </c>
       <c r="E127" s="4">
-        <v>175635</v>
+        <v>176063</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>8046</v>
+        <v>8061</v>
       </c>
       <c r="C128" s="4">
         <v>211</v>
       </c>
       <c r="D128" s="4">
-        <v>4193</v>
+        <v>4195</v>
       </c>
       <c r="E128" s="4">
-        <v>12450</v>
+        <v>12467</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>18276</v>
+        <v>18297</v>
       </c>
       <c r="C129" s="4">
         <v>498</v>
       </c>
       <c r="D129" s="4">
-        <v>7508</v>
+        <v>7533</v>
       </c>
       <c r="E129" s="4">
-        <v>26282</v>
+        <v>26328</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>126972</v>
+        <v>127279</v>
       </c>
       <c r="C130" s="4">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="D130" s="4">
-        <v>29146</v>
+        <v>29155</v>
       </c>
       <c r="E130" s="4">
-        <v>161992</v>
+        <v>162311</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>31354</v>
+        <v>31419</v>
       </c>
       <c r="C131" s="4">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="D131" s="4">
-        <v>13212</v>
+        <v>13218</v>
       </c>
       <c r="E131" s="4">
-        <v>46474</v>
+        <v>46547</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,16 +3281,16 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C132" s="4">
         <v>47</v>
       </c>
       <c r="D132" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E132" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>37058</v>
+        <v>37072</v>
       </c>
       <c r="C134" s="4">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D134" s="4">
-        <v>25970</v>
+        <v>25975</v>
       </c>
       <c r="E134" s="4">
-        <v>64099</v>
+        <v>64121</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C135" s="4">
         <v>43</v>
       </c>
       <c r="D135" s="4">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E135" s="4">
-        <v>2678</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3349,7 +3349,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C136" s="4">
         <v>4</v>
@@ -3358,7 +3358,7 @@
         <v>37</v>
       </c>
       <c r="E136" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
       <c r="C137" s="4">
         <v>49</v>
@@ -3375,7 +3375,7 @@
         <v>259</v>
       </c>
       <c r="E137" s="4">
-        <v>2839</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>31248</v>
+        <v>31508</v>
       </c>
       <c r="C138" s="4">
         <v>5060</v>
       </c>
       <c r="D138" s="4">
-        <v>11450</v>
+        <v>11471</v>
       </c>
       <c r="E138" s="4">
-        <v>47758</v>
+        <v>48039</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3417,7 +3417,7 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>8381</v>
+        <v>8402</v>
       </c>
       <c r="C140" s="4">
         <v>304</v>
@@ -3426,7 +3426,7 @@
         <v>840</v>
       </c>
       <c r="E140" s="4">
-        <v>9525</v>
+        <v>9546</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>25129</v>
+        <v>25162</v>
       </c>
       <c r="C141" s="4">
         <v>2546</v>
       </c>
       <c r="D141" s="4">
-        <v>8698</v>
+        <v>8733</v>
       </c>
       <c r="E141" s="4">
-        <v>36373</v>
+        <v>36441</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,7 +3451,7 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>6484</v>
+        <v>6492</v>
       </c>
       <c r="C142" s="4">
         <v>125</v>
@@ -3460,7 +3460,7 @@
         <v>6925</v>
       </c>
       <c r="E142" s="4">
-        <v>13534</v>
+        <v>13542</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,7 +3468,7 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>21000</v>
+        <v>21071</v>
       </c>
       <c r="C143" s="4">
         <v>658</v>
@@ -3477,7 +3477,7 @@
         <v>5314</v>
       </c>
       <c r="E143" s="4">
-        <v>26972</v>
+        <v>27043</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>14525</v>
+        <v>14557</v>
       </c>
       <c r="C144" s="4">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D144" s="4">
-        <v>5774</v>
+        <v>5798</v>
       </c>
       <c r="E144" s="4">
-        <v>21128</v>
+        <v>21187</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>9842</v>
+        <v>9861</v>
       </c>
       <c r="C145" s="4">
         <v>299</v>
       </c>
       <c r="D145" s="4">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="E145" s="4">
-        <v>14224</v>
+        <v>14244</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,7 +3519,7 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>11941</v>
+        <v>11985</v>
       </c>
       <c r="C146" s="4">
         <v>729</v>
@@ -3528,7 +3528,7 @@
         <v>3402</v>
       </c>
       <c r="E146" s="4">
-        <v>16072</v>
+        <v>16116</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>67373</v>
+        <v>67555</v>
       </c>
       <c r="C147" s="4">
-        <v>4296</v>
+        <v>4303</v>
       </c>
       <c r="D147" s="4">
-        <v>13021</v>
+        <v>13028</v>
       </c>
       <c r="E147" s="4">
-        <v>84690</v>
+        <v>84886</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>32573</v>
+        <v>32614</v>
       </c>
       <c r="C148" s="4">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D148" s="4">
-        <v>15809</v>
+        <v>15822</v>
       </c>
       <c r="E148" s="4">
-        <v>49040</v>
+        <v>49095</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,13 +3573,13 @@
         <v>326</v>
       </c>
       <c r="C149" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D149" s="4">
         <v>367</v>
       </c>
       <c r="E149" s="4">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>6933</v>
+        <v>6957</v>
       </c>
       <c r="C150" s="4">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D150" s="4">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="E150" s="4">
-        <v>10674</v>
+        <v>10702</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,7 +3604,7 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>14148</v>
+        <v>14190</v>
       </c>
       <c r="C151" s="4">
         <v>384</v>
@@ -3613,7 +3613,7 @@
         <v>2243</v>
       </c>
       <c r="E151" s="4">
-        <v>16775</v>
+        <v>16817</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>239849</v>
+        <v>240556</v>
       </c>
       <c r="C153" s="4">
-        <v>8104</v>
+        <v>8115</v>
       </c>
       <c r="D153" s="4">
-        <v>115448</v>
+        <v>115625</v>
       </c>
       <c r="E153" s="4">
-        <v>363401</v>
+        <v>364296</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="C154" s="4">
         <v>121</v>
       </c>
       <c r="D154" s="4">
-        <v>3142</v>
+        <v>3147</v>
       </c>
       <c r="E154" s="4">
-        <v>6557</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,7 +3672,7 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>15409</v>
+        <v>15630</v>
       </c>
       <c r="C155" s="4">
         <v>345</v>
@@ -3681,7 +3681,7 @@
         <v>3278</v>
       </c>
       <c r="E155" s="4">
-        <v>19032</v>
+        <v>19253</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,7 +3689,7 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2990</v>
+        <v>3001</v>
       </c>
       <c r="C156" s="4">
         <v>832</v>
@@ -3698,7 +3698,7 @@
         <v>2398</v>
       </c>
       <c r="E156" s="4">
-        <v>6220</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,7 +3706,7 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="C157" s="4">
         <v>176</v>
@@ -3715,7 +3715,7 @@
         <v>912</v>
       </c>
       <c r="E157" s="4">
-        <v>2517</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3726,13 +3726,13 @@
         <v>2106</v>
       </c>
       <c r="C158" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D158" s="4">
         <v>832</v>
       </c>
       <c r="E158" s="4">
-        <v>3010</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>38963</v>
+        <v>39044</v>
       </c>
       <c r="C159" s="4">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="D159" s="4">
-        <v>4682</v>
+        <v>4685</v>
       </c>
       <c r="E159" s="4">
-        <v>45406</v>
+        <v>45494</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>70459</v>
+        <v>70577</v>
       </c>
       <c r="C160" s="4">
         <v>486</v>
       </c>
       <c r="D160" s="4">
-        <v>14306</v>
+        <v>14397</v>
       </c>
       <c r="E160" s="4">
-        <v>85251</v>
+        <v>85460</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2641</v>
+        <v>2646</v>
       </c>
       <c r="C161" s="4">
         <v>64</v>
       </c>
       <c r="D161" s="4">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="E161" s="4">
-        <v>4977</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>291273</v>
+        <v>292170</v>
       </c>
       <c r="C162" s="4">
-        <v>10569</v>
+        <v>10575</v>
       </c>
       <c r="D162" s="4">
-        <v>77132</v>
+        <v>77238</v>
       </c>
       <c r="E162" s="4">
-        <v>378974</v>
+        <v>379983</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C163" s="4">
         <v>50</v>
@@ -3817,7 +3817,7 @@
         <v>92</v>
       </c>
       <c r="E163" s="4">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>36684</v>
+        <v>36771</v>
       </c>
       <c r="C164" s="4">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D164" s="4">
-        <v>9157</v>
+        <v>9162</v>
       </c>
       <c r="E164" s="4">
-        <v>47221</v>
+        <v>47314</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,7 +3842,7 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="C165" s="4">
         <v>21</v>
@@ -3851,7 +3851,7 @@
         <v>1037</v>
       </c>
       <c r="E165" s="4">
-        <v>3222</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>58446</v>
+        <v>58519</v>
       </c>
       <c r="C166" s="4">
-        <v>7383</v>
+        <v>7398</v>
       </c>
       <c r="D166" s="4">
-        <v>54135</v>
+        <v>54138</v>
       </c>
       <c r="E166" s="4">
-        <v>119964</v>
+        <v>120055</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>19796</v>
+        <v>19833</v>
       </c>
       <c r="C167" s="4">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D167" s="4">
-        <v>8642</v>
+        <v>8647</v>
       </c>
       <c r="E167" s="4">
-        <v>29552</v>
+        <v>29595</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>5573</v>
+        <v>5586</v>
       </c>
       <c r="C168" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D168" s="4">
         <v>1774</v>
       </c>
       <c r="E168" s="4">
-        <v>7450</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,7 +3910,7 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>6326</v>
+        <v>6339</v>
       </c>
       <c r="C169" s="4">
         <v>65</v>
@@ -3919,7 +3919,7 @@
         <v>3450</v>
       </c>
       <c r="E169" s="4">
-        <v>9841</v>
+        <v>9854</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,7 +3927,7 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>13170</v>
+        <v>13212</v>
       </c>
       <c r="C170" s="4">
         <v>1043</v>
@@ -3936,7 +3936,7 @@
         <v>3929</v>
       </c>
       <c r="E170" s="4">
-        <v>18142</v>
+        <v>18184</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>485927</v>
+        <v>487179</v>
       </c>
       <c r="C171" s="4">
-        <v>39846</v>
+        <v>39879</v>
       </c>
       <c r="D171" s="4">
-        <v>87458</v>
+        <v>87526</v>
       </c>
       <c r="E171" s="4">
-        <v>613231</v>
+        <v>614584</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>6875</v>
+        <v>6887</v>
       </c>
       <c r="C173" s="4">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D173" s="4">
         <v>5474</v>
       </c>
       <c r="E173" s="4">
-        <v>13082</v>
+        <v>13095</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>48849</v>
+        <v>48913</v>
       </c>
       <c r="C175" s="4">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="D175" s="4">
-        <v>12519</v>
+        <v>12520</v>
       </c>
       <c r="E175" s="4">
-        <v>64826</v>
+        <v>64892</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>31658</v>
+        <v>31733</v>
       </c>
       <c r="C176" s="4">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="D176" s="4">
-        <v>14700</v>
+        <v>14741</v>
       </c>
       <c r="E176" s="4">
-        <v>48098</v>
+        <v>48216</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>5033</v>
+        <v>5056</v>
       </c>
       <c r="C177" s="4">
         <v>813</v>
       </c>
       <c r="D177" s="4">
-        <v>2996</v>
+        <v>2998</v>
       </c>
       <c r="E177" s="4">
-        <v>8842</v>
+        <v>8867</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,7 +4063,7 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>9203</v>
+        <v>9209</v>
       </c>
       <c r="C178" s="4">
         <v>175</v>
@@ -4072,7 +4072,7 @@
         <v>4577</v>
       </c>
       <c r="E178" s="4">
-        <v>13955</v>
+        <v>13961</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>268946</v>
+        <v>269767</v>
       </c>
       <c r="C179" s="4">
-        <v>47159</v>
+        <v>47230</v>
       </c>
       <c r="D179" s="4">
-        <v>96156</v>
+        <v>96367</v>
       </c>
       <c r="E179" s="4">
-        <v>412261</v>
+        <v>413364</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>38526</v>
+        <v>38648</v>
       </c>
       <c r="C182" s="4">
-        <v>6082</v>
+        <v>6092</v>
       </c>
       <c r="D182" s="4">
-        <v>17125</v>
+        <v>17135</v>
       </c>
       <c r="E182" s="4">
-        <v>61733</v>
+        <v>61875</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>16625</v>
+        <v>16710</v>
       </c>
       <c r="C183" s="4">
         <v>983</v>
       </c>
       <c r="D183" s="4">
-        <v>7509</v>
+        <v>7511</v>
       </c>
       <c r="E183" s="4">
-        <v>25117</v>
+        <v>25204</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,7 +4165,7 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>11018</v>
+        <v>11040</v>
       </c>
       <c r="C184" s="4">
         <v>1182</v>
@@ -4174,7 +4174,7 @@
         <v>4452</v>
       </c>
       <c r="E184" s="4">
-        <v>16652</v>
+        <v>16674</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>89584</v>
+        <v>89804</v>
       </c>
       <c r="C185" s="4">
-        <v>6447</v>
+        <v>6458</v>
       </c>
       <c r="D185" s="4">
-        <v>25004</v>
+        <v>25014</v>
       </c>
       <c r="E185" s="4">
-        <v>121035</v>
+        <v>121276</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="C186" s="4">
         <v>281</v>
       </c>
       <c r="D186" s="4">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E186" s="4">
-        <v>4604</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>12268</v>
+        <v>12284</v>
       </c>
       <c r="C187" s="4">
         <v>124</v>
       </c>
       <c r="D187" s="4">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="E187" s="4">
-        <v>14364</v>
+        <v>14382</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>44824</v>
+        <v>44902</v>
       </c>
       <c r="C188" s="4">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="D188" s="4">
-        <v>12142</v>
+        <v>12145</v>
       </c>
       <c r="E188" s="4">
-        <v>59454</v>
+        <v>59538</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>88513</v>
+        <v>88570</v>
       </c>
       <c r="C189" s="4">
-        <v>8237</v>
+        <v>8240</v>
       </c>
       <c r="D189" s="4">
-        <v>24067</v>
+        <v>24069</v>
       </c>
       <c r="E189" s="4">
-        <v>120817</v>
+        <v>120879</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7567</v>
+        <v>7568</v>
       </c>
       <c r="C190" s="4">
         <v>53</v>
@@ -4276,7 +4276,7 @@
         <v>1619</v>
       </c>
       <c r="E190" s="4">
-        <v>9239</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>3876</v>
+        <v>3886</v>
       </c>
       <c r="C191" s="4">
         <v>433</v>
       </c>
       <c r="D191" s="4">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="E191" s="4">
-        <v>5678</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>59422</v>
+        <v>59470</v>
       </c>
       <c r="C192" s="4">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="D192" s="4">
-        <v>21965</v>
+        <v>21967</v>
       </c>
       <c r="E192" s="4">
-        <v>98167</v>
+        <v>98223</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C193" s="4">
         <v>31</v>
       </c>
       <c r="D193" s="4">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E193" s="4">
-        <v>1480</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,7 +4335,7 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="C194" s="4">
         <v>78</v>
@@ -4344,7 +4344,7 @@
         <v>788</v>
       </c>
       <c r="E194" s="4">
-        <v>2975</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>6772</v>
+        <v>6784</v>
       </c>
       <c r="C195" s="4">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D195" s="4">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="E195" s="4">
-        <v>10921</v>
+        <v>10935</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,7 +4369,7 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>9738</v>
+        <v>9740</v>
       </c>
       <c r="C196" s="4">
         <v>342</v>
@@ -4378,7 +4378,7 @@
         <v>64060</v>
       </c>
       <c r="E196" s="4">
-        <v>74140</v>
+        <v>74142</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>4616</v>
+        <v>4622</v>
       </c>
       <c r="C197" s="4">
         <v>436</v>
       </c>
       <c r="D197" s="4">
-        <v>4816</v>
+        <v>4820</v>
       </c>
       <c r="E197" s="4">
-        <v>9868</v>
+        <v>9878</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>14277</v>
+        <v>14312</v>
       </c>
       <c r="C199" s="4">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D199" s="4">
         <v>9043</v>
       </c>
       <c r="E199" s="4">
-        <v>23723</v>
+        <v>23760</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>87370</v>
+        <v>87512</v>
       </c>
       <c r="C200" s="4">
-        <v>6095</v>
+        <v>6104</v>
       </c>
       <c r="D200" s="4">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="E200" s="4">
-        <v>103481</v>
+        <v>103633</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>6515</v>
+        <v>6540</v>
       </c>
       <c r="C201" s="4">
         <v>172</v>
       </c>
       <c r="D201" s="4">
-        <v>4048</v>
+        <v>4066</v>
       </c>
       <c r="E201" s="4">
-        <v>10735</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>24838</v>
+        <v>24863</v>
       </c>
       <c r="C202" s="4">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="D202" s="4">
         <v>5244</v>
       </c>
       <c r="E202" s="4">
-        <v>32297</v>
+        <v>32324</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>8024</v>
+        <v>8033</v>
       </c>
       <c r="C203" s="4">
         <v>633</v>
       </c>
       <c r="D203" s="4">
-        <v>3381</v>
+        <v>3424</v>
       </c>
       <c r="E203" s="4">
-        <v>12038</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>7541</v>
+        <v>7551</v>
       </c>
       <c r="C204" s="4">
         <v>239</v>
       </c>
       <c r="D204" s="4">
-        <v>5064</v>
+        <v>5066</v>
       </c>
       <c r="E204" s="4">
-        <v>12844</v>
+        <v>12856</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>22683</v>
+        <v>22750</v>
       </c>
       <c r="C205" s="4">
         <v>2260</v>
       </c>
       <c r="D205" s="4">
-        <v>6354</v>
+        <v>6356</v>
       </c>
       <c r="E205" s="4">
-        <v>31297</v>
+        <v>31366</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>39786</v>
+        <v>39924</v>
       </c>
       <c r="C206" s="4">
-        <v>8699</v>
+        <v>8711</v>
       </c>
       <c r="D206" s="4">
-        <v>27628</v>
+        <v>27680</v>
       </c>
       <c r="E206" s="4">
-        <v>76113</v>
+        <v>76315</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>3733</v>
+        <v>3740</v>
       </c>
       <c r="C207" s="4">
         <v>93</v>
       </c>
       <c r="D207" s="4">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="E207" s="4">
-        <v>6553</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4579,10 +4579,10 @@
         <v>15</v>
       </c>
       <c r="D208" s="4">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E208" s="4">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>19886</v>
+        <v>19971</v>
       </c>
       <c r="C209" s="4">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D209" s="4">
         <v>1436</v>
       </c>
       <c r="E209" s="4">
-        <v>21549</v>
+        <v>21638</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,7 +4607,7 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C210" s="4">
         <v>80</v>
@@ -4616,7 +4616,7 @@
         <v>671</v>
       </c>
       <c r="E210" s="4">
-        <v>1621</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>14430</v>
+        <v>14459</v>
       </c>
       <c r="C211" s="4">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="D211" s="4">
-        <v>5314</v>
+        <v>5333</v>
       </c>
       <c r="E211" s="4">
-        <v>20847</v>
+        <v>20905</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>210588</v>
+        <v>210834</v>
       </c>
       <c r="C213" s="4">
-        <v>10107</v>
+        <v>10109</v>
       </c>
       <c r="D213" s="4">
         <v>42745</v>
       </c>
       <c r="E213" s="4">
-        <v>263440</v>
+        <v>263688</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>5570</v>
+        <v>5573</v>
       </c>
       <c r="C214" s="4">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D214" s="4">
-        <v>5611</v>
+        <v>5613</v>
       </c>
       <c r="E214" s="4">
-        <v>11580</v>
+        <v>11586</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>59213</v>
+        <v>59370</v>
       </c>
       <c r="C215" s="4">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="D215" s="4">
-        <v>22544</v>
+        <v>22545</v>
       </c>
       <c r="E215" s="4">
-        <v>82450</v>
+        <v>82614</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,7 +4709,7 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>4002</v>
+        <v>4008</v>
       </c>
       <c r="C216" s="4">
         <v>139</v>
@@ -4718,7 +4718,7 @@
         <v>3041</v>
       </c>
       <c r="E216" s="4">
-        <v>7182</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C217" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D217" s="4">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E217" s="4">
-        <v>1198</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>36</v>
       </c>
       <c r="D219" s="4">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E219" s="4">
-        <v>2305</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,7 +4777,7 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>5531</v>
+        <v>5535</v>
       </c>
       <c r="C220" s="4">
         <v>357</v>
@@ -4786,7 +4786,7 @@
         <v>1414</v>
       </c>
       <c r="E220" s="4">
-        <v>7302</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1969125</v>
+        <v>1972961</v>
       </c>
       <c r="C221" s="4">
-        <v>98593</v>
+        <v>98656</v>
       </c>
       <c r="D221" s="4">
-        <v>328983</v>
+        <v>329071</v>
       </c>
       <c r="E221" s="4">
-        <v>2396701</v>
+        <v>2400688</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>95204</v>
+        <v>95339</v>
       </c>
       <c r="C222" s="4">
-        <v>3604</v>
+        <v>3612</v>
       </c>
       <c r="D222" s="4">
-        <v>67882</v>
+        <v>67902</v>
       </c>
       <c r="E222" s="4">
-        <v>166690</v>
+        <v>166853</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>4440</v>
+        <v>4448</v>
       </c>
       <c r="C224" s="4">
         <v>118</v>
       </c>
       <c r="D224" s="4">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E224" s="4">
-        <v>7007</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,7 +4862,7 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C225" s="4">
         <v>31</v>
@@ -4871,7 +4871,7 @@
         <v>313</v>
       </c>
       <c r="E225" s="4">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,7 +4879,7 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>25362</v>
+        <v>25398</v>
       </c>
       <c r="C226" s="4">
         <v>1230</v>
@@ -4888,7 +4888,7 @@
         <v>5744</v>
       </c>
       <c r="E226" s="4">
-        <v>32336</v>
+        <v>32372</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>80937</v>
+        <v>81087</v>
       </c>
       <c r="C227" s="4">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="D227" s="4">
-        <v>60956</v>
+        <v>61322</v>
       </c>
       <c r="E227" s="4">
-        <v>143862</v>
+        <v>144385</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1303198</v>
+        <v>1307099</v>
       </c>
       <c r="C228" s="4">
-        <v>49274</v>
+        <v>49342</v>
       </c>
       <c r="D228" s="4">
-        <v>243349</v>
+        <v>243466</v>
       </c>
       <c r="E228" s="4">
-        <v>1595821</v>
+        <v>1599907</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>14514</v>
+        <v>14614</v>
       </c>
       <c r="C229" s="4">
         <v>531</v>
       </c>
       <c r="D229" s="4">
-        <v>4889</v>
+        <v>4890</v>
       </c>
       <c r="E229" s="4">
-        <v>19934</v>
+        <v>20035</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>12149</v>
+        <v>12225</v>
       </c>
       <c r="C230" s="4">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D230" s="4">
-        <v>6913</v>
+        <v>6915</v>
       </c>
       <c r="E230" s="4">
-        <v>20057</v>
+        <v>20137</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>12781</v>
+        <v>12804</v>
       </c>
       <c r="C231" s="4">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="D231" s="4">
-        <v>5491</v>
+        <v>5493</v>
       </c>
       <c r="E231" s="4">
-        <v>20438</v>
+        <v>20464</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4987,10 +4987,10 @@
         <v>77</v>
       </c>
       <c r="D232" s="4">
-        <v>2611</v>
+        <v>2618</v>
       </c>
       <c r="E232" s="4">
-        <v>3619</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,7 +4998,7 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>29176</v>
+        <v>29341</v>
       </c>
       <c r="C233" s="4">
         <v>453</v>
@@ -5007,7 +5007,7 @@
         <v>2866</v>
       </c>
       <c r="E233" s="4">
-        <v>32495</v>
+        <v>32660</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>49800</v>
+        <v>50123</v>
       </c>
       <c r="C234" s="4">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D234" s="4">
-        <v>20247</v>
+        <v>20251</v>
       </c>
       <c r="E234" s="4">
-        <v>71327</v>
+        <v>71655</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>23968</v>
+        <v>24024</v>
       </c>
       <c r="C235" s="4">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D235" s="4">
-        <v>12556</v>
+        <v>12560</v>
       </c>
       <c r="E235" s="4">
-        <v>38504</v>
+        <v>38565</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>52734</v>
+        <v>52874</v>
       </c>
       <c r="C236" s="4">
-        <v>2406</v>
+        <v>2428</v>
       </c>
       <c r="D236" s="4">
-        <v>21976</v>
+        <v>22007</v>
       </c>
       <c r="E236" s="4">
-        <v>77116</v>
+        <v>77309</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>130970</v>
+        <v>131345</v>
       </c>
       <c r="C237" s="4">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="D237" s="4">
-        <v>24061</v>
+        <v>24064</v>
       </c>
       <c r="E237" s="4">
-        <v>157938</v>
+        <v>158317</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>42529</v>
+        <v>42643</v>
       </c>
       <c r="C238" s="4">
         <v>2075</v>
       </c>
       <c r="D238" s="4">
-        <v>6534</v>
+        <v>6536</v>
       </c>
       <c r="E238" s="4">
-        <v>51138</v>
+        <v>51254</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,7 +5100,7 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4801</v>
+        <v>4803</v>
       </c>
       <c r="C239" s="4">
         <v>175</v>
@@ -5109,7 +5109,7 @@
         <v>810</v>
       </c>
       <c r="E239" s="4">
-        <v>5786</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>43317</v>
+        <v>43375</v>
       </c>
       <c r="C240" s="4">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="D240" s="4">
         <v>14978</v>
       </c>
       <c r="E240" s="4">
-        <v>60092</v>
+        <v>60151</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>417982</v>
+        <v>418588</v>
       </c>
       <c r="C241" s="4">
         <v>5762</v>
       </c>
       <c r="D241" s="4">
-        <v>87921</v>
+        <v>87923</v>
       </c>
       <c r="E241" s="4">
-        <v>511665</v>
+        <v>512273</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>37982</v>
+        <v>38067</v>
       </c>
       <c r="C242" s="4">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="D242" s="4">
         <v>5985</v>
       </c>
       <c r="E242" s="4">
-        <v>46201</v>
+        <v>46288</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,7 +5168,7 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1776</v>
+        <v>1782</v>
       </c>
       <c r="C243" s="4">
         <v>436</v>
@@ -5177,7 +5177,7 @@
         <v>2535</v>
       </c>
       <c r="E243" s="4">
-        <v>4747</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>116323</v>
+        <v>116449</v>
       </c>
       <c r="C244" s="4">
-        <v>7333</v>
+        <v>7335</v>
       </c>
       <c r="D244" s="4">
         <v>30873</v>
       </c>
       <c r="E244" s="4">
-        <v>154529</v>
+        <v>154657</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,7 +5202,7 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>13829</v>
+        <v>13832</v>
       </c>
       <c r="C245" s="4">
         <v>661</v>
@@ -5211,7 +5211,7 @@
         <v>5972</v>
       </c>
       <c r="E245" s="4">
-        <v>20462</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>35361</v>
+        <v>35577</v>
       </c>
       <c r="C246" s="4">
         <v>196</v>
       </c>
       <c r="D246" s="4">
-        <v>4989</v>
+        <v>4995</v>
       </c>
       <c r="E246" s="4">
-        <v>40546</v>
+        <v>40768</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>557453</v>
+        <v>559211</v>
       </c>
       <c r="C247" s="4">
-        <v>18609</v>
+        <v>18656</v>
       </c>
       <c r="D247" s="4">
-        <v>117192</v>
+        <v>117265</v>
       </c>
       <c r="E247" s="4">
-        <v>693254</v>
+        <v>695132</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>40590</v>
+        <v>40659</v>
       </c>
       <c r="C248" s="4">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D248" s="4">
-        <v>10391</v>
+        <v>10395</v>
       </c>
       <c r="E248" s="4">
-        <v>52233</v>
+        <v>52308</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,7 +5270,7 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C249" s="4">
         <v>55</v>
@@ -5279,7 +5279,7 @@
         <v>332</v>
       </c>
       <c r="E249" s="4">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>54726</v>
+        <v>54920</v>
       </c>
       <c r="C250" s="4">
-        <v>3435</v>
+        <v>3443</v>
       </c>
       <c r="D250" s="4">
-        <v>9008</v>
+        <v>9011</v>
       </c>
       <c r="E250" s="4">
-        <v>67169</v>
+        <v>67374</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>20892</v>
+        <v>20951</v>
       </c>
       <c r="C251" s="4">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D251" s="4">
-        <v>7177</v>
+        <v>7178</v>
       </c>
       <c r="E251" s="4">
-        <v>30021</v>
+        <v>30083</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="C252" s="4">
         <v>127</v>
       </c>
       <c r="D252" s="4">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E252" s="4">
-        <v>3609</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,7 +5338,7 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>8174</v>
+        <v>8189</v>
       </c>
       <c r="C253" s="4">
         <v>584</v>
@@ -5347,7 +5347,7 @@
         <v>3090</v>
       </c>
       <c r="E253" s="4">
-        <v>11848</v>
+        <v>11863</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,7 +5355,7 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>17196</v>
+        <v>17204</v>
       </c>
       <c r="C254" s="4">
         <v>136</v>
@@ -5364,7 +5364,7 @@
         <v>9750</v>
       </c>
       <c r="E254" s="4">
-        <v>27082</v>
+        <v>27090</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>10622</v>
+        <v>10668</v>
       </c>
       <c r="C255" s="4">
         <v>255</v>
       </c>
       <c r="D255" s="4">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="E255" s="4">
-        <v>12348</v>
+        <v>12396</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>155628</v>
+        <v>155648</v>
       </c>
       <c r="C256" s="4">
         <v>13334</v>
       </c>
       <c r="D256" s="4">
-        <v>12449</v>
+        <v>12450</v>
       </c>
       <c r="E256" s="4">
-        <v>181411</v>
+        <v>181432</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>28445708</v>
+        <v>28511737</v>
       </c>
       <c r="C257" s="4">
-        <v>1419575</v>
+        <v>1420866</v>
       </c>
       <c r="D257" s="4">
-        <v>5906122</v>
+        <v>5910590</v>
       </c>
       <c r="E257" s="4">
-        <v>35771405</v>
+        <v>35843193</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
